--- a/Misc/COTS Analysis.xlsx
+++ b/Misc/COTS Analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fs09d\stu12\Home\Jperry9317\Semester 5\Robot Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\ESE_PROJECT\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
-  <si>
-    <t>COTS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>Criteria</t>
   </si>
@@ -235,6 +232,15 @@
   </si>
   <si>
     <t>Winner</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Specs of potential Linux boxes</t>
+  </si>
+  <si>
+    <t>Yes, Micro SD</t>
   </si>
 </sst>
 </file>
@@ -253,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,46 +274,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -364,43 +347,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,241 +681,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16">
+        <v>59.99</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>59.99</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -939,10 +936,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,1240 +961,1240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="P1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="8" t="s">
+      <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>9</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="5">
         <v>9</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="5">
         <v>9</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="5">
         <v>7</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="5">
         <v>9</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="2">
         <f>AVERAGE(B2:G2)</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="2">
         <f>H2/SUM($H$2:$H$7)</f>
         <v>0.40169255738465104</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="16">
-        <v>1</v>
-      </c>
-      <c r="M2" s="16">
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10">
         <v>0.1111111111111111</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="10">
         <v>0.1111111111111111</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="10">
         <v>0.1111111111111111</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="10">
         <f>AVERAGE(L2:O2)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="2">
         <f>P2/$P$6</f>
         <v>3.5714285714285719E-2</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="8">
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
         <f>I2</f>
         <v>0.40169255738465104</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="2">
         <f>Q2</f>
         <v>3.5714285714285719E-2</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="2">
         <f>Q3</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="2">
         <f>Q4</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="2">
         <f>Q5</f>
         <v>0.3214285714285714</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="5">
         <v>7</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="0">AVERAGE(B3:G3)</f>
         <v>3.074074074074074</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I7" si="1">H3/SUM($H$2:$H$7)</f>
         <v>0.168386274055182</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="16">
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="10">
         <v>9</v>
       </c>
-      <c r="M3" s="16">
-        <v>1</v>
-      </c>
-      <c r="N3" s="16">
-        <v>1</v>
-      </c>
-      <c r="O3" s="16">
-        <v>1</v>
-      </c>
-      <c r="P3" s="16">
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="P3" s="10">
         <f t="shared" ref="P3:P5" si="2">AVERAGE(L3:O3)</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q5" si="3">P3/$P$6</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="8">
+      <c r="S3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="2">
         <f t="shared" ref="T3:T7" si="4">I3</f>
         <v>0.168386274055182</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="2">
         <f>Q10</f>
         <v>0.48626119172584126</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="2">
         <f>Q11</f>
         <v>0.32417412781722754</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="2">
         <f>Q12</f>
         <v>3.6739734485952448E-2</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="2">
         <f>Q13</f>
         <v>0.15282494597097868</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>0.2</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="6">
         <v>0.14285714285714285</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="5">
         <v>7</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>2.2423280423280425</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>0.1228263389751913</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="10">
         <v>9</v>
       </c>
-      <c r="M4" s="16">
-        <v>1</v>
-      </c>
-      <c r="N4" s="16">
-        <v>1</v>
-      </c>
-      <c r="O4" s="16">
-        <v>1</v>
-      </c>
-      <c r="P4" s="16">
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10">
+        <v>1</v>
+      </c>
+      <c r="P4" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="2">
         <f t="shared" si="3"/>
         <v>0.3214285714285714</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="8">
+      <c r="S4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="2">
         <f t="shared" si="4"/>
         <v>0.1228263389751913</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="2">
         <f>Q18</f>
         <v>0.37499999999999994</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="2">
         <f>Q19</f>
         <v>0.37499999999999994</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="2">
         <f>Q20</f>
         <v>0.12499999999999999</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="2">
         <f>Q21</f>
         <v>0.12499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>0.2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>0.2</v>
       </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
         <v>0.14285714285714285</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="5">
         <v>3</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>0.77566137566137561</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>4.248782749826107E-2</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="10">
         <v>9</v>
       </c>
-      <c r="M5" s="16">
-        <v>1</v>
-      </c>
-      <c r="N5" s="16">
-        <v>1</v>
-      </c>
-      <c r="O5" s="16">
-        <v>1</v>
-      </c>
-      <c r="P5" s="16">
+      <c r="M5" s="10">
+        <v>1</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="2">
         <f t="shared" si="3"/>
         <v>0.3214285714285714</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="8">
+      <c r="S5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="2">
         <f t="shared" si="4"/>
         <v>4.248782749826107E-2</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="2">
         <f>Q26</f>
         <v>0.37878787878787878</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="2">
         <f>Q27</f>
         <v>0.37878787878787878</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="2">
         <f>Q28</f>
         <v>0.17676767676767677</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="2">
         <f>Q29</f>
         <v>6.5656565656565663E-2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
         <v>0.14285714285714285</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="5">
         <v>7</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <v>7</v>
       </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
         <v>9</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>4.5238095238095237</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>0.24779735682819382</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="16">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="10">
         <f>SUM(P2:P5)</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="S6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="8">
+      <c r="Q6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="2">
         <f t="shared" si="4"/>
         <v>0.24779735682819382</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="2">
         <f>Q34</f>
         <v>4.4062606328683231E-2</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="2">
         <f>Q35</f>
         <v>0.24651241919020075</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="2">
         <f>Q36</f>
         <v>0.1199387546784621</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="2">
         <f>Q37</f>
         <v>0.58948621980265403</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="7">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="7">
         <v>0.1111111111111111</v>
       </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>0.30687830687830686</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>1.6809645258520751E-2</v>
       </c>
-      <c r="S7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="8">
+      <c r="S7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="2">
         <f t="shared" si="4"/>
         <v>1.6809645258520751E-2</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="2">
         <f>Q42</f>
         <v>0.3</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="2">
         <f>Q43</f>
         <v>0.3</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="2">
         <f>Q44</f>
         <v>0.3</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="2">
         <f>Q45</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="S8" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="S8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13">
         <f>SUM(U2*$T$2+U3*$T$3+U4*$T$4+U5*$T$5+U6*$T$6+U7*$T$7)</f>
         <v>0.17434111518491796</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="13">
         <f t="shared" ref="V8:X8" si="5">SUM(V2*$T$2+V3*$T$3+V4*$T$4+V5*$T$5+V6*$T$6+V7*$T$7)</f>
         <v>0.31198370904814915</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="13">
         <f t="shared" si="5"/>
         <v>0.19292909877132067</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="13">
         <f t="shared" si="5"/>
         <v>0.32074607699561219</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K9" s="8"/>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="16">
-        <v>1</v>
-      </c>
-      <c r="M10" s="16">
+      <c r="K10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10">
         <v>3</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="10">
         <v>9</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="10">
         <v>7</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="10">
         <f>AVERAGE(L10:O10)</f>
         <v>5</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="2">
         <f>P10/$P$14</f>
         <v>0.48626119172584126</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="K11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M11" s="16">
-        <v>1</v>
-      </c>
-      <c r="N11" s="16">
+      <c r="M11" s="10">
+        <v>1</v>
+      </c>
+      <c r="N11" s="10">
         <v>7</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="10">
         <v>5</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="10">
         <f t="shared" ref="P11:P13" si="6">AVERAGE(L11:O11)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="2">
         <f t="shared" ref="Q11:Q13" si="7">P11/$P$14</f>
         <v>0.32417412781722754</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" s="8" t="s">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="X11" s="8" t="s">
-        <v>67</v>
+      <c r="X11" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="16">
+      <c r="K12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="10">
         <v>0.1111111111111111</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="10">
         <v>0.2</v>
       </c>
-      <c r="N12" s="16">
-        <v>1</v>
-      </c>
-      <c r="O12" s="16">
+      <c r="N12" s="10">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10">
         <v>0.2</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="10">
         <f t="shared" si="6"/>
         <v>0.37777777777777777</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="2">
         <f t="shared" si="7"/>
         <v>3.6739734485952448E-2</v>
       </c>
-      <c r="T12" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="U12" s="20">
+      <c r="T12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U12" s="15">
         <f>U8</f>
         <v>0.17434111518491796</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="15">
         <f>V8</f>
         <v>0.31198370904814915</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="15">
         <f>W8</f>
         <v>0.19292909877132067</v>
       </c>
-      <c r="X12" s="20">
+      <c r="X12" s="15">
         <f>X8</f>
         <v>0.32074607699561219</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="K13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="10">
         <v>0.14285714285714285</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="10">
         <v>0.14285714285714285</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="10">
         <v>5</v>
       </c>
-      <c r="O13" s="16">
-        <v>1</v>
-      </c>
-      <c r="P13" s="16">
+      <c r="O13" s="10">
+        <v>1</v>
+      </c>
+      <c r="P13" s="10">
         <f t="shared" si="6"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="2">
         <f t="shared" si="7"/>
         <v>0.15282494597097868</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="16">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="10">
         <f>SUM(P10:P13)</f>
         <v>10.282539682539683</v>
       </c>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="U16" s="20" t="str">
+      <c r="T16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="15" t="str">
         <f ca="1">LOOKUP(LARGE(U12:X13,1),U12:X13,U11:X11)</f>
         <v>Beaglebone</v>
       </c>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
     </row>
     <row r="17" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K17" s="8"/>
-      <c r="L17" s="8" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
     </row>
     <row r="18" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="16">
-        <v>1</v>
-      </c>
-      <c r="M18" s="16">
-        <v>1</v>
-      </c>
-      <c r="N18" s="16">
+      <c r="K18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <v>3</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="10">
         <v>3</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="10">
         <f>AVERAGE(L18:O18)</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="2">
         <f>P18/$P$22</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="19" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="16">
-        <v>1</v>
-      </c>
-      <c r="M19" s="16">
-        <v>1</v>
-      </c>
-      <c r="N19" s="16">
+      <c r="K19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <v>3</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="10">
         <v>3</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="10">
         <f t="shared" ref="P19:P21" si="8">AVERAGE(L19:O19)</f>
         <v>2</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="2">
         <f t="shared" ref="Q19:Q21" si="9">P19/$P$22</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="20" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="16">
+      <c r="K20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N20" s="16">
-        <v>1</v>
-      </c>
-      <c r="O20" s="16">
-        <v>1</v>
-      </c>
-      <c r="P20" s="16">
+      <c r="N20" s="10">
+        <v>1</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="2">
         <f t="shared" si="9"/>
         <v>0.12499999999999999</v>
       </c>
     </row>
     <row r="21" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" s="16">
+      <c r="K21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N21" s="16">
-        <v>1</v>
-      </c>
-      <c r="O21" s="16">
-        <v>1</v>
-      </c>
-      <c r="P21" s="16">
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="2">
         <f t="shared" si="9"/>
         <v>0.12499999999999999</v>
       </c>
     </row>
     <row r="22" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="16">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="10">
         <f>SUM(P18:P21)</f>
         <v>5.3333333333333339</v>
       </c>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="25" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K25" s="8"/>
-      <c r="L25" s="8" t="s">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P25" s="8" t="s">
+      <c r="P25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q25" s="8" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="26" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" s="16">
-        <v>1</v>
-      </c>
-      <c r="M26" s="16">
-        <v>1</v>
-      </c>
-      <c r="N26" s="16">
+      <c r="K26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="10">
+        <v>1</v>
+      </c>
+      <c r="N26" s="10">
         <v>3</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="10">
         <v>5</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="10">
         <f>AVERAGE(L26:O26)</f>
         <v>2.5</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="2">
         <f>P26/$P$30</f>
         <v>0.37878787878787878</v>
       </c>
     </row>
     <row r="27" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="16">
-        <v>1</v>
-      </c>
-      <c r="M27" s="16">
-        <v>1</v>
-      </c>
-      <c r="N27" s="16">
+      <c r="K27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="10">
+        <v>1</v>
+      </c>
+      <c r="M27" s="10">
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
         <v>3</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O27" s="10">
         <v>5</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="10">
         <f t="shared" ref="P27:P29" si="10">AVERAGE(L27:O27)</f>
         <v>2.5</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="2">
         <f t="shared" ref="Q27:Q29" si="11">P27/$P$30</f>
         <v>0.37878787878787878</v>
       </c>
     </row>
     <row r="28" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="16">
+      <c r="K28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N28" s="16">
-        <v>1</v>
-      </c>
-      <c r="O28" s="16">
+      <c r="N28" s="10">
+        <v>1</v>
+      </c>
+      <c r="O28" s="10">
         <v>3</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="10">
         <f t="shared" si="10"/>
         <v>1.1666666666666665</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="2">
         <f t="shared" si="11"/>
         <v>0.17676767676767677</v>
       </c>
     </row>
     <row r="29" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="16">
+      <c r="K29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="10">
         <v>0.2</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="10">
         <v>0.2</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O29" s="16">
-        <v>1</v>
-      </c>
-      <c r="P29" s="16">
+      <c r="O29" s="10">
+        <v>1</v>
+      </c>
+      <c r="P29" s="10">
         <f t="shared" si="10"/>
         <v>0.43333333333333335</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="2">
         <f t="shared" si="11"/>
         <v>6.5656565656565663E-2</v>
       </c>
     </row>
     <row r="30" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="16">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="10">
         <f>SUM(P26:P29)</f>
         <v>6.6</v>
       </c>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="33" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K33" s="8"/>
-      <c r="L33" s="8" t="s">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P33" s="8" t="s">
+      <c r="P33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q33" s="8" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="34" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L34" s="16">
-        <v>1</v>
-      </c>
-      <c r="M34" s="16">
+      <c r="K34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1</v>
+      </c>
+      <c r="M34" s="10">
         <v>0.2</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="10">
         <v>0.1111111111111111</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="10">
         <f>AVERAGE(L34:O34)</f>
         <v>0.41111111111111109</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="2">
         <f>P34/$P$38</f>
         <v>4.4062606328683231E-2</v>
       </c>
     </row>
     <row r="35" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L35" s="16">
+      <c r="K35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="10">
         <v>5</v>
       </c>
-      <c r="M35" s="16">
-        <v>1</v>
-      </c>
-      <c r="N35" s="16">
+      <c r="M35" s="10">
+        <v>1</v>
+      </c>
+      <c r="N35" s="10">
         <v>3</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="10">
         <v>0.2</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="10">
         <f t="shared" ref="P35:P37" si="12">AVERAGE(L35:O35)</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="2">
         <f t="shared" ref="Q35:Q37" si="13">P35/$P$38</f>
         <v>0.24651241919020075</v>
       </c>
     </row>
     <row r="36" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K36" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="16">
+      <c r="K36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="10">
         <v>3</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N36" s="16">
-        <v>1</v>
-      </c>
-      <c r="O36" s="16">
+      <c r="N36" s="10">
+        <v>1</v>
+      </c>
+      <c r="O36" s="10">
         <v>0.14285714285714285</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="10">
         <f t="shared" si="12"/>
         <v>1.1190476190476193</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="2">
         <f t="shared" si="13"/>
         <v>0.1199387546784621</v>
       </c>
     </row>
     <row r="37" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L37" s="16">
+      <c r="K37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="10">
         <v>9</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="10">
         <v>5</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="10">
         <v>7</v>
       </c>
-      <c r="O37" s="16">
-        <v>1</v>
-      </c>
-      <c r="P37" s="16">
+      <c r="O37" s="10">
+        <v>1</v>
+      </c>
+      <c r="P37" s="10">
         <f t="shared" si="12"/>
         <v>5.5</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="2">
         <f t="shared" si="13"/>
         <v>0.58948621980265403</v>
       </c>
     </row>
     <row r="38" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="16">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="10">
         <f>SUM(P34:P37)</f>
         <v>9.330158730158729</v>
       </c>
-      <c r="Q38" s="8"/>
+      <c r="Q38" s="2"/>
     </row>
     <row r="41" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K41" s="8"/>
-      <c r="L41" s="8" t="s">
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P41" s="8" t="s">
+      <c r="P41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Q41" s="8" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="42" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L42" s="16">
-        <v>1</v>
-      </c>
-      <c r="M42" s="16">
-        <v>1</v>
-      </c>
-      <c r="N42" s="16">
-        <v>1</v>
-      </c>
-      <c r="O42" s="16">
+      <c r="K42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L42" s="10">
+        <v>1</v>
+      </c>
+      <c r="M42" s="10">
+        <v>1</v>
+      </c>
+      <c r="N42" s="10">
+        <v>1</v>
+      </c>
+      <c r="O42" s="10">
         <v>3</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42" s="10">
         <f>AVERAGE(L42:O42)</f>
         <v>1.5</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="2">
         <f>P42/$P$46</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="43" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K43" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L43" s="16">
-        <v>1</v>
-      </c>
-      <c r="M43" s="16">
-        <v>1</v>
-      </c>
-      <c r="N43" s="16">
-        <v>1</v>
-      </c>
-      <c r="O43" s="16">
+      <c r="K43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43" s="10">
+        <v>1</v>
+      </c>
+      <c r="M43" s="10">
+        <v>1</v>
+      </c>
+      <c r="N43" s="10">
+        <v>1</v>
+      </c>
+      <c r="O43" s="10">
         <v>3</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="10">
         <f t="shared" ref="P43:P45" si="14">AVERAGE(L43:O43)</f>
         <v>1.5</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="2">
         <f t="shared" ref="Q43:Q45" si="15">P43/$P$46</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="44" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L44" s="16">
-        <v>1</v>
-      </c>
-      <c r="M44" s="16">
-        <v>1</v>
-      </c>
-      <c r="N44" s="16">
-        <v>1</v>
-      </c>
-      <c r="O44" s="16">
+      <c r="K44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="10">
+        <v>1</v>
+      </c>
+      <c r="M44" s="10">
+        <v>1</v>
+      </c>
+      <c r="N44" s="10">
+        <v>1</v>
+      </c>
+      <c r="O44" s="10">
         <v>3</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44" s="10">
         <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="2">
         <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="45" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L45" s="16">
+      <c r="K45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O45" s="16">
-        <v>1</v>
-      </c>
-      <c r="P45" s="16">
+      <c r="O45" s="10">
+        <v>1</v>
+      </c>
+      <c r="P45" s="10">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="2">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="46" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="16">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="10">
         <f>SUM(P42:P45)</f>
         <v>5</v>
       </c>
-      <c r="Q46" s="8"/>
+      <c r="Q46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2207,5 +2207,6 @@
     <mergeCell ref="U16:W17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="17" scale="73" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>